--- a/运输问题表格.xlsx
+++ b/运输问题表格.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503AADF-23F4-4588-AD11-CAA12A3F0025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE7937-E12E-42CA-8CB0-2E803B9F9396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B18:B19"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/运输问题表格.xlsx
+++ b/运输问题表格.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE7937-E12E-42CA-8CB0-2E803B9F9396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C09D9-D838-4AFD-B97C-7E2386E8D23C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>企业1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,35 @@
   <si>
     <t>需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库2</t>
+  </si>
+  <si>
+    <t>仓库3</t>
+  </si>
+  <si>
+    <t>仓库4</t>
+  </si>
+  <si>
+    <t>仓库5</t>
+  </si>
+  <si>
+    <t>仓库6</t>
+  </si>
+  <si>
+    <t>仓库7</t>
+  </si>
+  <si>
+    <t>仓库8</t>
   </si>
   <si>
     <t>生产</t>
@@ -387,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,6 +536,112 @@
         <v>400</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>537.6</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>333.6</v>
+      </c>
+      <c r="C9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>983.2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>628.79999999999995</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>880.8</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>630.4</v>
+      </c>
+      <c r="C14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>912</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/运输问题表格.xlsx
+++ b/运输问题表格.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C09D9-D838-4AFD-B97C-7E2386E8D23C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291DACFE-DF59-487E-A9EE-2A87367A8B02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>企业1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,13 +89,60 @@
   <si>
     <t>生产</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要15天，结果1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟销售地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟产地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">solution2_1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB3B3B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8×4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    20   160     0   120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   300     0     0     0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     0     0     0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     0   120     0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     0    20    50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     0     0   140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0     0   100     0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +156,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFB3B3B3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,10 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,18 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -470,7 +532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -493,7 +555,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -516,7 +578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -536,7 +598,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -544,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -555,7 +617,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -566,7 +628,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -579,7 +641,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -590,7 +652,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -601,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -612,7 +674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -623,7 +685,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -634,12 +696,620 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
         <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>184.8</v>
+      </c>
+      <c r="C20">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D20">
+        <v>268.8</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>148.4</v>
+      </c>
+      <c r="C21">
+        <v>210.8</v>
+      </c>
+      <c r="D21">
+        <v>396.8</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>407.6</v>
+      </c>
+      <c r="C22">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="D22">
+        <v>147.6</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>230.4</v>
+      </c>
+      <c r="C23">
+        <v>189.6</v>
+      </c>
+      <c r="D23">
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>156</v>
+      </c>
+      <c r="C24">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="D24">
+        <v>404.4</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>356.4</v>
+      </c>
+      <c r="C25">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="D25">
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>231.2</v>
+      </c>
+      <c r="C26">
+        <v>141.6</v>
+      </c>
+      <c r="D26">
+        <v>196.8</v>
+      </c>
+      <c r="E26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>372</v>
+      </c>
+      <c r="C27">
+        <v>331.2</v>
+      </c>
+      <c r="D27">
+        <v>111.6</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <f>12*B30</f>
+        <v>480</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:D29" si="0">12*C30</f>
+        <v>240</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="E31">
+        <f>SUM(E20:E28)</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>184.8</v>
+      </c>
+      <c r="C36">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D36">
+        <v>268.8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>300</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>148.4</v>
+      </c>
+      <c r="C37">
+        <v>210.8</v>
+      </c>
+      <c r="D37">
+        <v>396.8</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>300</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>407.6</v>
+      </c>
+      <c r="C38">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="D38">
+        <v>147.6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>230.4</v>
+      </c>
+      <c r="C39">
+        <v>189.6</v>
+      </c>
+      <c r="D39">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>120</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>156</v>
+      </c>
+      <c r="C40">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="D40">
+        <v>404.4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>356.4</v>
+      </c>
+      <c r="C41">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="D41">
+        <v>174</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>70</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>231.2</v>
+      </c>
+      <c r="C42">
+        <v>141.6</v>
+      </c>
+      <c r="D42">
+        <v>196.8</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>140</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>372</v>
+      </c>
+      <c r="C43">
+        <v>331.2</v>
+      </c>
+      <c r="D43">
+        <v>111.6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>320</v>
+      </c>
+      <c r="C44">
+        <v>160</v>
+      </c>
+      <c r="D44">
+        <v>240</v>
+      </c>
+      <c r="E44">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>184.8</v>
+      </c>
+      <c r="C47">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D47">
+        <v>268.8</v>
+      </c>
+      <c r="E47">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>148.4</v>
+      </c>
+      <c r="C48">
+        <v>210.8</v>
+      </c>
+      <c r="D48">
+        <v>486.8</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>472.4</v>
+      </c>
+      <c r="C49">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="D49">
+        <v>147.6</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>483.6</v>
+      </c>
+      <c r="C50">
+        <v>330.8</v>
+      </c>
+      <c r="D50">
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>156</v>
+      </c>
+      <c r="C51">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="D51">
+        <v>462.8</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>422.4</v>
+      </c>
+      <c r="C52">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="D52">
+        <v>174</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>256.8</v>
+      </c>
+      <c r="C53">
+        <v>141.6</v>
+      </c>
+      <c r="D53">
+        <v>196.8</v>
+      </c>
+      <c r="E53">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>505.2</v>
+      </c>
+      <c r="C54">
+        <v>352.4</v>
+      </c>
+      <c r="D54">
+        <v>111.6</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>160</v>
+      </c>
+      <c r="C56">
+        <v>80</v>
+      </c>
+      <c r="D56">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
